--- a/biology/Botanique/Eremurus_turkestanicus/Eremurus_turkestanicus.xlsx
+++ b/biology/Botanique/Eremurus_turkestanicus/Eremurus_turkestanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodelus
 Eremurus turkestanicus, ou lis des steppes du Turkestan, est une espèce de plante vivace herbacée de la famille des Xanthorrhoéacées originaire de l'ouest des monts Tian et du Pamir.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremurus turkestanicus peut croître jusqu'à 1 mètre à partir d'un rhizome, et dépasse en moyenne 70 cm. Sa tige nue est droite. Ses feuilles d'un vert grisâtre mesurent de 20 à 45 mm de largeur. Son inflorescence en forme de  hampe légèrement cylindrique mesure de 30 à 60 cm de hauteur et possède des pédicelles qui se tiennent bien droit au moment de la fructification. Ses tépales extérieurs et intérieurs sont lancéolés et droits, de couleur blanche et mesurent de 9 à 12 mm de longueur, ceux du bas font un peu moins du double. Les capsules sont ovoïdes et mesurent entre 7 et 8 mm.
 Le lis des steppes du Turkestan fleurit de juin à juillet.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremurus turkestanicus est originaire de l'ouest des monts Tian et du Pamir. On le trouve dans les steppes boisées de montagne, souvent avec des genévriers, de 1 100 mètres à 1 800 mètres d'altitude.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante ornementale est cultivée depuis 1881. Elle a été étudiée par Eduard von Regel (1825-1892), directeur du jardin botanique de Saint-Pétersbourg, d'après des spécimens rapportés par Olga Fedtchenko.
 </t>
